--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc102_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc102_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2480" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4960" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -477,10 +489,10 @@
       <c r="I12">
         <f>((C12-C11)^2+(D12- D11)^2)^.5</f>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="2" t="s">
+      <c r="J12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L12" t="n">
@@ -524,28 +536,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="2">
+      <c r="A14" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C14" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s" s="2">
+      <c r="C14" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -570,28 +582,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I16" t="s" s="2">
+      <c r="I16" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -795,10 +807,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="2" t="s">
+      <c r="J23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -842,28 +854,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="2">
+      <c r="A25" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="2">
+      <c r="C25" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -888,28 +900,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="2">
+      <c r="C27" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="2">
+      <c r="D27" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="2">
+      <c r="I27" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1026,10 +1038,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="2" t="s">
+      <c r="J31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1073,28 +1085,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="2">
+      <c r="A33" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s" s="2">
+      <c r="C33" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1119,28 +1131,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="2">
+      <c r="C35" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="2">
+      <c r="D35" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="2">
+      <c r="I35" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1257,10 +1269,10 @@
       <c r="I39">
         <f>((C39-C38)^2+(D39- D38)^2)^.5</f>
       </c>
-      <c r="J39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="2" t="s">
+      <c r="J39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L39" t="n">
@@ -1304,28 +1316,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="2">
+      <c r="A41" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C41" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s" s="2">
+      <c r="C41" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1350,28 +1362,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C43" t="s" s="2">
+      <c r="C43" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D43" t="s" s="2">
+      <c r="D43" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G43" t="s" s="2">
+      <c r="G43" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H43" t="s" s="2">
+      <c r="H43" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I43" t="s" s="2">
+      <c r="I43" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1488,10 +1500,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="2" t="s">
+      <c r="J47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1535,28 +1547,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="2">
+      <c r="A49" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s" s="2">
+      <c r="C49" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1581,28 +1593,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="2">
+      <c r="C51" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="2">
+      <c r="D51" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="2">
+      <c r="I51" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1748,10 +1760,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="2" t="s">
+      <c r="J56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1795,28 +1807,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="2">
+      <c r="A58" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s" s="2">
+      <c r="C58" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1841,28 +1853,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="2">
+      <c r="C60" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="2">
+      <c r="D60" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="2">
+      <c r="I60" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1921,10 +1933,10 @@
       <c r="I62">
         <f>((C62-C61)^2+(D62- D61)^2)^.5</f>
       </c>
-      <c r="J62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K62" s="2" t="s">
+      <c r="J62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K62" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L62" t="n">
@@ -1968,28 +1980,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="2">
+      <c r="A64" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D64" t="s" s="2">
+      <c r="C64" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2014,28 +2026,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C66" t="s" s="2">
+      <c r="C66" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D66" t="s" s="2">
+      <c r="D66" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I66" t="s" s="2">
+      <c r="I66" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2210,10 +2222,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K72" s="2" t="s">
+      <c r="J72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2257,28 +2269,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="2">
+      <c r="A74" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s" s="2">
+      <c r="C74" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2303,28 +2315,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="2">
+      <c r="C76" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="2">
+      <c r="D76" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="2">
+      <c r="I76" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2383,10 +2395,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="2" t="s">
+      <c r="J78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2430,28 +2442,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="2">
+      <c r="A80" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="2">
+      <c r="C80" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2476,28 +2488,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="2">
+      <c r="C82" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="2">
+      <c r="D82" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="2">
+      <c r="I82" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2556,10 +2568,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="2" t="s">
+      <c r="J84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2603,28 +2615,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="2">
+      <c r="A86" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s" s="2">
+      <c r="C86" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2649,28 +2661,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="2">
+      <c r="C88" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="2">
+      <c r="D88" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="2">
+      <c r="I88" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2787,10 +2799,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="2" t="s">
+      <c r="J92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2834,28 +2846,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="2">
+      <c r="A94" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="2">
+      <c r="C94" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2880,28 +2892,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="2">
+      <c r="C96" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="2">
+      <c r="D96" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="2">
+      <c r="I96" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3018,10 +3030,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K100" s="2" t="s">
+      <c r="J100" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K100" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3065,28 +3077,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="2">
+      <c r="A102" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D102" t="s" s="2">
+      <c r="C102" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3111,28 +3123,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="2">
+      <c r="C104" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="2">
+      <c r="D104" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="2">
+      <c r="I104" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3191,10 +3203,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="2" t="s">
+      <c r="J106" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3238,28 +3250,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="2">
+      <c r="A108" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="2">
+      <c r="C108" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3284,28 +3296,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="2">
+      <c r="I110" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3393,10 +3405,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="2" t="s">
+      <c r="J113" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3440,28 +3452,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="2">
+      <c r="A115" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s" s="2">
+      <c r="C115" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3486,28 +3498,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="2">
+      <c r="C117" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="2">
+      <c r="D117" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="2">
+      <c r="I117" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3566,10 +3578,10 @@
       <c r="I119">
         <f>((C119-C118)^2+(D119- D118)^2)^.5</f>
       </c>
-      <c r="J119" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K119" s="2" t="s">
+      <c r="J119" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K119" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L119" t="n">
@@ -3613,28 +3625,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="2">
+      <c r="A121" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C121" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D121" t="s" s="2">
+      <c r="C121" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3659,28 +3671,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C123" t="s" s="2">
+      <c r="C123" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D123" t="s" s="2">
+      <c r="D123" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I123" t="s" s="2">
+      <c r="I123" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3739,10 +3751,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K125" s="2" t="s">
+      <c r="J125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K125" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3786,28 +3798,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="2">
+      <c r="A127" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D127" t="s" s="2">
+      <c r="C127" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3832,28 +3844,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="2">
+      <c r="C129" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="2">
+      <c r="D129" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="2">
+      <c r="I129" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3912,10 +3924,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="2" t="s">
+      <c r="J131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3959,28 +3971,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="2">
+      <c r="A133" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="2">
+      <c r="C133" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4005,28 +4017,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="C135" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="2">
+      <c r="D135" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="2">
+      <c r="I135" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4085,10 +4097,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K137" s="2" t="s">
+      <c r="J137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4132,28 +4144,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="2">
+      <c r="A139" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s" s="2">
+      <c r="C139" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4178,28 +4190,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="2">
+      <c r="C141" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="2">
+      <c r="D141" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="2">
+      <c r="I141" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4258,10 +4270,10 @@
       <c r="I143">
         <f>((C143-C142)^2+(D143- D142)^2)^.5</f>
       </c>
-      <c r="J143" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K143" s="2" t="s">
+      <c r="J143" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K143" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L143" t="n">
@@ -4305,28 +4317,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="2">
+      <c r="A145" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C145" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D145" t="s" s="2">
+      <c r="C145" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4351,28 +4363,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C147" t="s" s="2">
+      <c r="C147" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D147" t="s" s="2">
+      <c r="D147" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I147" t="s" s="2">
+      <c r="I147" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4518,10 +4530,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K152" s="2" t="s">
+      <c r="J152" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4565,28 +4577,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="2">
+      <c r="A154" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D154" t="s" s="2">
+      <c r="C154" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4611,28 +4623,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="2">
+      <c r="C156" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="2">
+      <c r="D156" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="2">
+      <c r="I156" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4691,10 +4703,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K158" s="2" t="s">
+      <c r="J158" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K158" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4738,28 +4750,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="2">
+      <c r="A160" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D160" t="s" s="2">
+      <c r="C160" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4784,28 +4796,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="2">
+      <c r="C162" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="2">
+      <c r="D162" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="2">
+      <c r="I162" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4864,10 +4876,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="2" t="s">
+      <c r="J164" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4911,28 +4923,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="2">
+      <c r="A166" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="2">
+      <c r="C166" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4957,28 +4969,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="C168" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="2">
+      <c r="D168" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="2">
+      <c r="I168" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5037,10 +5049,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="2" t="s">
+      <c r="J170" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5084,28 +5096,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="2">
+      <c r="A172" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="2">
+      <c r="C172" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5130,28 +5142,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="C174" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="2">
+      <c r="D174" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="2">
+      <c r="I174" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5210,10 +5222,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="2" t="s">
+      <c r="J176" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5257,28 +5269,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="2">
+      <c r="A178" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="2">
+      <c r="C178" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5303,28 +5315,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="2">
+      <c r="C180" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="2">
+      <c r="D180" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="2">
+      <c r="I180" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5383,10 +5395,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="2" t="s">
+      <c r="J182" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5430,28 +5442,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="2">
+      <c r="A184" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="2">
+      <c r="C184" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5476,28 +5488,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="2">
+      <c r="C186" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="2">
+      <c r="D186" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="2">
+      <c r="I186" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5556,10 +5568,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="2" t="s">
+      <c r="J188" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5603,28 +5615,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="2">
+      <c r="A190" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="2">
+      <c r="C190" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5649,28 +5661,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="2">
+      <c r="C192" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="2">
+      <c r="D192" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="2">
+      <c r="I192" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5729,10 +5741,10 @@
       <c r="I194">
         <f>((C194-C193)^2+(D194- D193)^2)^.5</f>
       </c>
-      <c r="J194" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K194" s="2" t="s">
+      <c r="J194" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K194" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L194" t="n">
@@ -5776,28 +5788,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="s" s="2">
+      <c r="A196" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C196" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D196" t="s" s="2">
+      <c r="C196" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5822,28 +5834,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C198" t="s" s="2">
+      <c r="C198" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D198" t="s" s="2">
+      <c r="D198" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I198" t="s" s="2">
+      <c r="I198" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5902,10 +5914,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K200" s="2" t="s">
+      <c r="J200" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -5949,28 +5961,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="2">
+      <c r="A202" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s" s="2">
+      <c r="C202" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5995,28 +6007,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="2">
+      <c r="C204" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="2">
+      <c r="D204" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="2">
+      <c r="I204" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6075,10 +6087,10 @@
       <c r="I206">
         <f>((C206-C205)^2+(D206- D205)^2)^.5</f>
       </c>
-      <c r="J206" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K206" s="2" t="s">
+      <c r="J206" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K206" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L206" t="n">
@@ -6122,28 +6134,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="s" s="2">
+      <c r="A208" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C208" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D208" t="s" s="2">
+      <c r="C208" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6168,28 +6180,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C210" t="s" s="2">
+      <c r="C210" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D210" t="s" s="2">
+      <c r="D210" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I210" t="s" s="2">
+      <c r="I210" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6248,10 +6260,10 @@
       <c r="I212">
         <f>((C212-C211)^2+(D212- D211)^2)^.5</f>
       </c>
-      <c r="J212" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K212" s="2" t="s">
+      <c r="J212" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K212" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L212" t="n">
@@ -6295,28 +6307,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s" s="2">
+      <c r="A214" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C214" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D214" t="s" s="2">
+      <c r="C214" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6341,28 +6353,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C216" t="s" s="2">
+      <c r="C216" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D216" t="s" s="2">
+      <c r="D216" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I216" t="s" s="2">
+      <c r="I216" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6421,10 +6433,10 @@
       <c r="I218">
         <f>((C218-C217)^2+(D218- D217)^2)^.5</f>
       </c>
-      <c r="J218" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K218" s="2" t="s">
+      <c r="J218" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K218" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L218" t="n">
@@ -6468,28 +6480,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="s" s="2">
+      <c r="A220" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C220" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D220" t="s" s="2">
+      <c r="C220" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D220" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6514,28 +6526,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C222" t="s" s="2">
+      <c r="C222" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D222" t="s" s="2">
+      <c r="D222" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I222" t="s" s="2">
+      <c r="I222" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6594,10 +6606,10 @@
       <c r="I224">
         <f>((C224-C223)^2+(D224- D223)^2)^.5</f>
       </c>
-      <c r="J224" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K224" s="2" t="s">
+      <c r="J224" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K224" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L224" t="n">
@@ -6641,28 +6653,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="s" s="2">
+      <c r="A226" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C226" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D226" t="s" s="2">
+      <c r="C226" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D226" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6687,28 +6699,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="B228" t="s" s="2">
+      <c r="B228" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C228" t="s" s="2">
+      <c r="C228" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D228" t="s" s="2">
+      <c r="D228" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G228" t="s" s="2">
+      <c r="G228" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H228" t="s" s="2">
+      <c r="H228" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I228" t="s" s="2">
+      <c r="I228" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6767,10 +6779,10 @@
       <c r="I230">
         <f>((C230-C229)^2+(D230- D229)^2)^.5</f>
       </c>
-      <c r="J230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="2" t="s">
+      <c r="J230" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L230" t="n">
@@ -6814,28 +6826,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="2">
+      <c r="A232" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C232" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s" s="2">
+      <c r="C232" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6860,28 +6872,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C234" t="s" s="2">
+      <c r="C234" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D234" t="s" s="2">
+      <c r="D234" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I234" t="s" s="2">
+      <c r="I234" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6940,10 +6952,10 @@
       <c r="I236">
         <f>((C236-C235)^2+(D236- D235)^2)^.5</f>
       </c>
-      <c r="J236" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K236" s="2" t="s">
+      <c r="J236" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K236" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L236" t="n">
@@ -6987,28 +6999,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="s" s="2">
+      <c r="A238" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B238" t="s" s="2">
+      <c r="B238" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C238" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D238" t="s" s="2">
+      <c r="C238" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D238" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E238" t="s" s="2">
+      <c r="E238" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F238" t="s" s="2">
+      <c r="F238" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G238" t="s" s="2">
+      <c r="G238" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H238" t="s" s="2">
+      <c r="H238" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7033,28 +7045,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C240" t="s" s="2">
+      <c r="C240" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D240" t="s" s="2">
+      <c r="D240" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I240" t="s" s="2">
+      <c r="I240" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7113,10 +7125,10 @@
       <c r="I242">
         <f>((C242-C241)^2+(D242- D241)^2)^.5</f>
       </c>
-      <c r="J242" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K242" s="2" t="s">
+      <c r="J242" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K242" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L242" t="n">
@@ -7160,28 +7172,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="s" s="2">
+      <c r="A244" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B244" t="s" s="2">
+      <c r="B244" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C244" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D244" t="s" s="2">
+      <c r="C244" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D244" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E244" t="s" s="2">
+      <c r="E244" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F244" t="s" s="2">
+      <c r="F244" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G244" t="s" s="2">
+      <c r="G244" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H244" t="s" s="2">
+      <c r="H244" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7206,28 +7218,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="B246" t="s" s="2">
+      <c r="B246" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C246" t="s" s="2">
+      <c r="C246" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D246" t="s" s="2">
+      <c r="D246" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E246" t="s" s="2">
+      <c r="E246" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F246" t="s" s="2">
+      <c r="F246" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G246" t="s" s="2">
+      <c r="G246" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H246" t="s" s="2">
+      <c r="H246" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I246" t="s" s="2">
+      <c r="I246" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7286,10 +7298,10 @@
       <c r="I248">
         <f>((C248-C247)^2+(D248- D247)^2)^.5</f>
       </c>
-      <c r="J248" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K248" s="2" t="s">
+      <c r="J248" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K248" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L248" t="n">
@@ -7333,28 +7345,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="s" s="2">
+      <c r="A250" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B250" t="s" s="2">
+      <c r="B250" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C250" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D250" t="s" s="2">
+      <c r="C250" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D250" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E250" t="s" s="2">
+      <c r="E250" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F250" t="s" s="2">
+      <c r="F250" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G250" t="s" s="2">
+      <c r="G250" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H250" t="s" s="2">
+      <c r="H250" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7379,28 +7391,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="B252" t="s" s="2">
+      <c r="B252" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C252" t="s" s="2">
+      <c r="C252" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D252" t="s" s="2">
+      <c r="D252" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E252" t="s" s="2">
+      <c r="E252" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F252" t="s" s="2">
+      <c r="F252" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G252" t="s" s="2">
+      <c r="G252" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H252" t="s" s="2">
+      <c r="H252" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I252" t="s" s="2">
+      <c r="I252" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7459,10 +7471,10 @@
       <c r="I254">
         <f>((C254-C253)^2+(D254- D253)^2)^.5</f>
       </c>
-      <c r="J254" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K254" s="2" t="s">
+      <c r="J254" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K254" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L254" t="n">
@@ -7506,28 +7518,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="s" s="2">
+      <c r="A256" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B256" t="s" s="2">
+      <c r="B256" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C256" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D256" t="s" s="2">
+      <c r="C256" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D256" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E256" t="s" s="2">
+      <c r="E256" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F256" t="s" s="2">
+      <c r="F256" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G256" t="s" s="2">
+      <c r="G256" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H256" t="s" s="2">
+      <c r="H256" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7552,28 +7564,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="B258" t="s" s="2">
+      <c r="B258" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C258" t="s" s="2">
+      <c r="C258" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D258" t="s" s="2">
+      <c r="D258" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E258" t="s" s="2">
+      <c r="E258" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F258" t="s" s="2">
+      <c r="F258" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G258" t="s" s="2">
+      <c r="G258" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H258" t="s" s="2">
+      <c r="H258" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I258" t="s" s="2">
+      <c r="I258" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7632,10 +7644,10 @@
       <c r="I260">
         <f>((C260-C259)^2+(D260- D259)^2)^.5</f>
       </c>
-      <c r="J260" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K260" s="2" t="s">
+      <c r="J260" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K260" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L260" t="n">
@@ -7679,28 +7691,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="2">
+      <c r="A262" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C262" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D262" t="s" s="2">
+      <c r="C262" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7725,28 +7737,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="B264" t="s" s="2">
+      <c r="B264" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C264" t="s" s="2">
+      <c r="C264" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D264" t="s" s="2">
+      <c r="D264" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E264" t="s" s="2">
+      <c r="E264" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F264" t="s" s="2">
+      <c r="F264" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G264" t="s" s="2">
+      <c r="G264" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H264" t="s" s="2">
+      <c r="H264" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I264" t="s" s="2">
+      <c r="I264" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7805,10 +7817,10 @@
       <c r="I266">
         <f>((C266-C265)^2+(D266- D265)^2)^.5</f>
       </c>
-      <c r="J266" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K266" s="2" t="s">
+      <c r="J266" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K266" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L266" t="n">
@@ -7852,28 +7864,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="s" s="2">
+      <c r="A268" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B268" t="s" s="2">
+      <c r="B268" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C268" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D268" t="s" s="2">
+      <c r="C268" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D268" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E268" t="s" s="2">
+      <c r="E268" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F268" t="s" s="2">
+      <c r="F268" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G268" t="s" s="2">
+      <c r="G268" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H268" t="s" s="2">
+      <c r="H268" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7898,28 +7910,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="B270" t="s" s="2">
+      <c r="B270" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C270" t="s" s="2">
+      <c r="C270" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D270" t="s" s="2">
+      <c r="D270" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E270" t="s" s="2">
+      <c r="E270" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F270" t="s" s="2">
+      <c r="F270" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G270" t="s" s="2">
+      <c r="G270" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H270" t="s" s="2">
+      <c r="H270" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I270" t="s" s="2">
+      <c r="I270" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7978,10 +7990,10 @@
       <c r="I272">
         <f>((C272-C271)^2+(D272- D271)^2)^.5</f>
       </c>
-      <c r="J272" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K272" s="2" t="s">
+      <c r="J272" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K272" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L272" t="n">
@@ -8025,28 +8037,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="s" s="2">
+      <c r="A274" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B274" t="s" s="2">
+      <c r="B274" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C274" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D274" t="s" s="2">
+      <c r="C274" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D274" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E274" t="s" s="2">
+      <c r="E274" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F274" t="s" s="2">
+      <c r="F274" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G274" t="s" s="2">
+      <c r="G274" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H274" t="s" s="2">
+      <c r="H274" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8071,28 +8083,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="B276" t="s" s="2">
+      <c r="B276" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C276" t="s" s="2">
+      <c r="C276" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D276" t="s" s="2">
+      <c r="D276" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E276" t="s" s="2">
+      <c r="E276" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F276" t="s" s="2">
+      <c r="F276" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G276" t="s" s="2">
+      <c r="G276" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H276" t="s" s="2">
+      <c r="H276" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I276" t="s" s="2">
+      <c r="I276" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8151,10 +8163,10 @@
       <c r="I278">
         <f>((C278-C277)^2+(D278- D277)^2)^.5</f>
       </c>
-      <c r="J278" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K278" s="2" t="s">
+      <c r="J278" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K278" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L278" t="n">
@@ -8198,28 +8210,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="s" s="2">
+      <c r="A280" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B280" t="s" s="2">
+      <c r="B280" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C280" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D280" t="s" s="2">
+      <c r="C280" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D280" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E280" t="s" s="2">
+      <c r="E280" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F280" t="s" s="2">
+      <c r="F280" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G280" t="s" s="2">
+      <c r="G280" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H280" t="s" s="2">
+      <c r="H280" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8244,28 +8256,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="B282" t="s" s="2">
+      <c r="B282" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C282" t="s" s="2">
+      <c r="C282" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D282" t="s" s="2">
+      <c r="D282" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E282" t="s" s="2">
+      <c r="E282" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F282" t="s" s="2">
+      <c r="F282" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G282" t="s" s="2">
+      <c r="G282" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H282" t="s" s="2">
+      <c r="H282" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I282" t="s" s="2">
+      <c r="I282" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8324,10 +8336,10 @@
       <c r="I284">
         <f>((C284-C283)^2+(D284- D283)^2)^.5</f>
       </c>
-      <c r="J284" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K284" s="2" t="s">
+      <c r="J284" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K284" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L284" t="n">
@@ -8371,28 +8383,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="s" s="2">
+      <c r="A286" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B286" t="s" s="2">
+      <c r="B286" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C286" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D286" t="s" s="2">
+      <c r="C286" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D286" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E286" t="s" s="2">
+      <c r="E286" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F286" t="s" s="2">
+      <c r="F286" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G286" t="s" s="2">
+      <c r="G286" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H286" t="s" s="2">
+      <c r="H286" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8417,28 +8429,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="B288" t="s" s="2">
+      <c r="B288" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C288" t="s" s="2">
+      <c r="C288" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D288" t="s" s="2">
+      <c r="D288" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E288" t="s" s="2">
+      <c r="E288" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F288" t="s" s="2">
+      <c r="F288" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G288" t="s" s="2">
+      <c r="G288" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H288" t="s" s="2">
+      <c r="H288" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I288" t="s" s="2">
+      <c r="I288" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8497,10 +8509,10 @@
       <c r="I290">
         <f>((C290-C289)^2+(D290- D289)^2)^.5</f>
       </c>
-      <c r="J290" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K290" s="2" t="s">
+      <c r="J290" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K290" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L290" t="n">
@@ -8544,28 +8556,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="s" s="2">
+      <c r="A292" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B292" t="s" s="2">
+      <c r="B292" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C292" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D292" t="s" s="2">
+      <c r="C292" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D292" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E292" t="s" s="2">
+      <c r="E292" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F292" t="s" s="2">
+      <c r="F292" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G292" t="s" s="2">
+      <c r="G292" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H292" t="s" s="2">
+      <c r="H292" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8590,28 +8602,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="B294" t="s" s="2">
+      <c r="B294" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C294" t="s" s="2">
+      <c r="C294" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D294" t="s" s="2">
+      <c r="D294" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E294" t="s" s="2">
+      <c r="E294" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F294" t="s" s="2">
+      <c r="F294" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G294" t="s" s="2">
+      <c r="G294" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H294" t="s" s="2">
+      <c r="H294" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I294" t="s" s="2">
+      <c r="I294" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8670,10 +8682,10 @@
       <c r="I296">
         <f>((C296-C295)^2+(D296- D295)^2)^.5</f>
       </c>
-      <c r="J296" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K296" s="2" t="s">
+      <c r="J296" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K296" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L296" t="n">
@@ -8717,28 +8729,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="s" s="2">
+      <c r="A298" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B298" t="s" s="2">
+      <c r="B298" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C298" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D298" t="s" s="2">
+      <c r="C298" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D298" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E298" t="s" s="2">
+      <c r="E298" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F298" t="s" s="2">
+      <c r="F298" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G298" t="s" s="2">
+      <c r="G298" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H298" t="s" s="2">
+      <c r="H298" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8763,28 +8775,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="B300" t="s" s="2">
+      <c r="B300" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C300" t="s" s="2">
+      <c r="C300" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D300" t="s" s="2">
+      <c r="D300" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E300" t="s" s="2">
+      <c r="E300" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F300" t="s" s="2">
+      <c r="F300" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G300" t="s" s="2">
+      <c r="G300" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H300" t="s" s="2">
+      <c r="H300" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I300" t="s" s="2">
+      <c r="I300" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8843,10 +8855,10 @@
       <c r="I302">
         <f>((C302-C301)^2+(D302- D301)^2)^.5</f>
       </c>
-      <c r="J302" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K302" s="2" t="s">
+      <c r="J302" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K302" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L302" t="n">
@@ -8890,28 +8902,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="s" s="2">
+      <c r="A304" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B304" t="s" s="2">
+      <c r="B304" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C304" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D304" t="s" s="2">
+      <c r="C304" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D304" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E304" t="s" s="2">
+      <c r="E304" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F304" t="s" s="2">
+      <c r="F304" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G304" t="s" s="2">
+      <c r="G304" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H304" t="s" s="2">
+      <c r="H304" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8936,28 +8948,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="B306" t="s" s="2">
+      <c r="B306" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C306" t="s" s="2">
+      <c r="C306" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D306" t="s" s="2">
+      <c r="D306" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E306" t="s" s="2">
+      <c r="E306" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F306" t="s" s="2">
+      <c r="F306" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G306" t="s" s="2">
+      <c r="G306" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H306" t="s" s="2">
+      <c r="H306" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I306" t="s" s="2">
+      <c r="I306" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9016,10 +9028,10 @@
       <c r="I308">
         <f>((C308-C307)^2+(D308- D307)^2)^.5</f>
       </c>
-      <c r="J308" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K308" s="2" t="s">
+      <c r="J308" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K308" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L308" t="n">
@@ -9063,28 +9075,28 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="s" s="2">
+      <c r="A310" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B310" t="s" s="2">
+      <c r="B310" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C310" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D310" t="s" s="2">
+      <c r="C310" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D310" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E310" t="s" s="2">
+      <c r="E310" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F310" t="s" s="2">
+      <c r="F310" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G310" t="s" s="2">
+      <c r="G310" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H310" t="s" s="2">
+      <c r="H310" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9109,28 +9121,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="B312" t="s" s="2">
+      <c r="B312" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C312" t="s" s="2">
+      <c r="C312" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D312" t="s" s="2">
+      <c r="D312" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E312" t="s" s="2">
+      <c r="E312" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F312" t="s" s="2">
+      <c r="F312" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G312" t="s" s="2">
+      <c r="G312" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H312" t="s" s="2">
+      <c r="H312" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I312" t="s" s="2">
+      <c r="I312" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9189,10 +9201,10 @@
       <c r="I314">
         <f>((C314-C313)^2+(D314- D313)^2)^.5</f>
       </c>
-      <c r="J314" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K314" s="2" t="s">
+      <c r="J314" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K314" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L314" t="n">
@@ -9236,28 +9248,28 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="s" s="2">
+      <c r="A316" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B316" t="s" s="2">
+      <c r="B316" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C316" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D316" t="s" s="2">
+      <c r="C316" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D316" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E316" t="s" s="2">
+      <c r="E316" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F316" t="s" s="2">
+      <c r="F316" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G316" t="s" s="2">
+      <c r="G316" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H316" t="s" s="2">
+      <c r="H316" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9282,28 +9294,28 @@
       </c>
     </row>
     <row r="318">
-      <c r="B318" t="s" s="2">
+      <c r="B318" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C318" t="s" s="2">
+      <c r="C318" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D318" t="s" s="2">
+      <c r="D318" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E318" t="s" s="2">
+      <c r="E318" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F318" t="s" s="2">
+      <c r="F318" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G318" t="s" s="2">
+      <c r="G318" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H318" t="s" s="2">
+      <c r="H318" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I318" t="s" s="2">
+      <c r="I318" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9362,10 +9374,10 @@
       <c r="I320">
         <f>((C320-C319)^2+(D320- D319)^2)^.5</f>
       </c>
-      <c r="J320" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K320" s="2" t="s">
+      <c r="J320" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K320" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L320" t="n">
@@ -9409,28 +9421,28 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="s" s="2">
+      <c r="A322" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B322" t="s" s="2">
+      <c r="B322" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C322" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D322" t="s" s="2">
+      <c r="C322" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D322" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E322" t="s" s="2">
+      <c r="E322" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F322" t="s" s="2">
+      <c r="F322" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G322" t="s" s="2">
+      <c r="G322" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H322" t="s" s="2">
+      <c r="H322" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9455,28 +9467,28 @@
       </c>
     </row>
     <row r="324">
-      <c r="B324" t="s" s="2">
+      <c r="B324" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C324" t="s" s="2">
+      <c r="C324" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D324" t="s" s="2">
+      <c r="D324" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E324" t="s" s="2">
+      <c r="E324" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F324" t="s" s="2">
+      <c r="F324" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G324" t="s" s="2">
+      <c r="G324" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H324" t="s" s="2">
+      <c r="H324" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I324" t="s" s="2">
+      <c r="I324" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9535,10 +9547,10 @@
       <c r="I326">
         <f>((C326-C325)^2+(D326- D325)^2)^.5</f>
       </c>
-      <c r="J326" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K326" s="2" t="s">
+      <c r="J326" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K326" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L326" t="n">
@@ -9582,28 +9594,28 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="s" s="2">
+      <c r="A328" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B328" t="s" s="2">
+      <c r="B328" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C328" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D328" t="s" s="2">
+      <c r="C328" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D328" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E328" t="s" s="2">
+      <c r="E328" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F328" t="s" s="2">
+      <c r="F328" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G328" t="s" s="2">
+      <c r="G328" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H328" t="s" s="2">
+      <c r="H328" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9628,28 +9640,28 @@
       </c>
     </row>
     <row r="330">
-      <c r="B330" t="s" s="2">
+      <c r="B330" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C330" t="s" s="2">
+      <c r="C330" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D330" t="s" s="2">
+      <c r="D330" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E330" t="s" s="2">
+      <c r="E330" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F330" t="s" s="2">
+      <c r="F330" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G330" t="s" s="2">
+      <c r="G330" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H330" t="s" s="2">
+      <c r="H330" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I330" t="s" s="2">
+      <c r="I330" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9708,10 +9720,10 @@
       <c r="I332">
         <f>((C332-C331)^2+(D332- D331)^2)^.5</f>
       </c>
-      <c r="J332" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K332" s="2" t="s">
+      <c r="J332" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K332" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L332" t="n">
@@ -9755,28 +9767,28 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" t="s" s="2">
+      <c r="A334" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B334" t="s" s="2">
+      <c r="B334" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C334" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D334" t="s" s="2">
+      <c r="C334" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D334" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E334" t="s" s="2">
+      <c r="E334" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F334" t="s" s="2">
+      <c r="F334" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G334" t="s" s="2">
+      <c r="G334" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H334" t="s" s="2">
+      <c r="H334" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9801,28 +9813,28 @@
       </c>
     </row>
     <row r="336">
-      <c r="B336" t="s" s="2">
+      <c r="B336" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C336" t="s" s="2">
+      <c r="C336" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D336" t="s" s="2">
+      <c r="D336" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E336" t="s" s="2">
+      <c r="E336" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F336" t="s" s="2">
+      <c r="F336" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G336" t="s" s="2">
+      <c r="G336" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H336" t="s" s="2">
+      <c r="H336" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I336" t="s" s="2">
+      <c r="I336" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9881,10 +9893,10 @@
       <c r="I338">
         <f>((C338-C337)^2+(D338- D337)^2)^.5</f>
       </c>
-      <c r="J338" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K338" s="2" t="s">
+      <c r="J338" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K338" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L338" t="n">
@@ -9928,28 +9940,28 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="s" s="2">
+      <c r="A340" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B340" t="s" s="2">
+      <c r="B340" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C340" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D340" t="s" s="2">
+      <c r="C340" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D340" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E340" t="s" s="2">
+      <c r="E340" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F340" t="s" s="2">
+      <c r="F340" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G340" t="s" s="2">
+      <c r="G340" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H340" t="s" s="2">
+      <c r="H340" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9974,28 +9986,28 @@
       </c>
     </row>
     <row r="342">
-      <c r="B342" t="s" s="2">
+      <c r="B342" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C342" t="s" s="2">
+      <c r="C342" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D342" t="s" s="2">
+      <c r="D342" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E342" t="s" s="2">
+      <c r="E342" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F342" t="s" s="2">
+      <c r="F342" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G342" t="s" s="2">
+      <c r="G342" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H342" t="s" s="2">
+      <c r="H342" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I342" t="s" s="2">
+      <c r="I342" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10054,10 +10066,10 @@
       <c r="I344">
         <f>((C344-C343)^2+(D344- D343)^2)^.5</f>
       </c>
-      <c r="J344" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K344" s="2" t="s">
+      <c r="J344" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K344" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L344" t="n">
@@ -10101,28 +10113,28 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="s" s="2">
+      <c r="A346" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B346" t="s" s="2">
+      <c r="B346" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C346" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D346" t="s" s="2">
+      <c r="C346" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D346" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E346" t="s" s="2">
+      <c r="E346" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F346" t="s" s="2">
+      <c r="F346" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G346" t="s" s="2">
+      <c r="G346" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H346" t="s" s="2">
+      <c r="H346" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10147,28 +10159,28 @@
       </c>
     </row>
     <row r="348">
-      <c r="B348" t="s" s="2">
+      <c r="B348" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C348" t="s" s="2">
+      <c r="C348" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D348" t="s" s="2">
+      <c r="D348" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E348" t="s" s="2">
+      <c r="E348" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F348" t="s" s="2">
+      <c r="F348" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G348" t="s" s="2">
+      <c r="G348" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H348" t="s" s="2">
+      <c r="H348" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I348" t="s" s="2">
+      <c r="I348" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10227,10 +10239,10 @@
       <c r="I350">
         <f>((C350-C349)^2+(D350- D349)^2)^.5</f>
       </c>
-      <c r="J350" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K350" s="2" t="s">
+      <c r="J350" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K350" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L350" t="n">
@@ -10274,28 +10286,28 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" t="s" s="2">
+      <c r="A352" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B352" t="s" s="2">
+      <c r="B352" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C352" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D352" t="s" s="2">
+      <c r="C352" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D352" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E352" t="s" s="2">
+      <c r="E352" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F352" t="s" s="2">
+      <c r="F352" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G352" t="s" s="2">
+      <c r="G352" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H352" t="s" s="2">
+      <c r="H352" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10320,28 +10332,28 @@
       </c>
     </row>
     <row r="354">
-      <c r="B354" t="s" s="2">
+      <c r="B354" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C354" t="s" s="2">
+      <c r="C354" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D354" t="s" s="2">
+      <c r="D354" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E354" t="s" s="2">
+      <c r="E354" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F354" t="s" s="2">
+      <c r="F354" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G354" t="s" s="2">
+      <c r="G354" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H354" t="s" s="2">
+      <c r="H354" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I354" t="s" s="2">
+      <c r="I354" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10400,10 +10412,10 @@
       <c r="I356">
         <f>((C356-C355)^2+(D356- D355)^2)^.5</f>
       </c>
-      <c r="J356" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K356" s="2" t="s">
+      <c r="J356" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K356" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L356" t="n">
@@ -10447,28 +10459,28 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" t="s" s="2">
+      <c r="A358" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B358" t="s" s="2">
+      <c r="B358" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C358" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D358" t="s" s="2">
+      <c r="C358" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D358" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E358" t="s" s="2">
+      <c r="E358" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F358" t="s" s="2">
+      <c r="F358" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G358" t="s" s="2">
+      <c r="G358" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H358" t="s" s="2">
+      <c r="H358" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10493,28 +10505,28 @@
       </c>
     </row>
     <row r="360">
-      <c r="B360" t="s" s="2">
+      <c r="B360" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C360" t="s" s="2">
+      <c r="C360" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D360" t="s" s="2">
+      <c r="D360" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E360" t="s" s="2">
+      <c r="E360" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F360" t="s" s="2">
+      <c r="F360" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G360" t="s" s="2">
+      <c r="G360" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H360" t="s" s="2">
+      <c r="H360" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I360" t="s" s="2">
+      <c r="I360" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10573,10 +10585,10 @@
       <c r="I362">
         <f>((C362-C361)^2+(D362- D361)^2)^.5</f>
       </c>
-      <c r="J362" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K362" s="2" t="s">
+      <c r="J362" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K362" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L362" t="n">
@@ -10620,28 +10632,28 @@
       </c>
     </row>
     <row r="364">
-      <c r="A364" t="s" s="2">
+      <c r="A364" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B364" t="s" s="2">
+      <c r="B364" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C364" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D364" t="s" s="2">
+      <c r="C364" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D364" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E364" t="s" s="2">
+      <c r="E364" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F364" t="s" s="2">
+      <c r="F364" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G364" t="s" s="2">
+      <c r="G364" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H364" t="s" s="2">
+      <c r="H364" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10666,28 +10678,28 @@
       </c>
     </row>
     <row r="366">
-      <c r="B366" t="s" s="2">
+      <c r="B366" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C366" t="s" s="2">
+      <c r="C366" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D366" t="s" s="2">
+      <c r="D366" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E366" t="s" s="2">
+      <c r="E366" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F366" t="s" s="2">
+      <c r="F366" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G366" t="s" s="2">
+      <c r="G366" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H366" t="s" s="2">
+      <c r="H366" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I366" t="s" s="2">
+      <c r="I366" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10746,10 +10758,10 @@
       <c r="I368">
         <f>((C368-C367)^2+(D368- D367)^2)^.5</f>
       </c>
-      <c r="J368" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K368" s="2" t="s">
+      <c r="J368" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K368" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L368" t="n">
@@ -10793,28 +10805,28 @@
       </c>
     </row>
     <row r="370">
-      <c r="A370" t="s" s="2">
+      <c r="A370" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B370" t="s" s="2">
+      <c r="B370" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C370" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D370" t="s" s="2">
+      <c r="C370" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D370" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E370" t="s" s="2">
+      <c r="E370" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F370" t="s" s="2">
+      <c r="F370" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G370" t="s" s="2">
+      <c r="G370" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H370" t="s" s="2">
+      <c r="H370" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10839,28 +10851,28 @@
       </c>
     </row>
     <row r="372">
-      <c r="B372" t="s" s="2">
+      <c r="B372" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C372" t="s" s="2">
+      <c r="C372" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D372" t="s" s="2">
+      <c r="D372" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E372" t="s" s="2">
+      <c r="E372" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F372" t="s" s="2">
+      <c r="F372" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G372" t="s" s="2">
+      <c r="G372" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H372" t="s" s="2">
+      <c r="H372" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I372" t="s" s="2">
+      <c r="I372" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10919,10 +10931,10 @@
       <c r="I374">
         <f>((C374-C373)^2+(D374- D373)^2)^.5</f>
       </c>
-      <c r="J374" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K374" s="2" t="s">
+      <c r="J374" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K374" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L374" t="n">
@@ -10966,28 +10978,28 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" t="s" s="2">
+      <c r="A376" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B376" t="s" s="2">
+      <c r="B376" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C376" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D376" t="s" s="2">
+      <c r="C376" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D376" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E376" t="s" s="2">
+      <c r="E376" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F376" t="s" s="2">
+      <c r="F376" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G376" t="s" s="2">
+      <c r="G376" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H376" t="s" s="2">
+      <c r="H376" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11012,28 +11024,28 @@
       </c>
     </row>
     <row r="378">
-      <c r="B378" t="s" s="2">
+      <c r="B378" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C378" t="s" s="2">
+      <c r="C378" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D378" t="s" s="2">
+      <c r="D378" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E378" t="s" s="2">
+      <c r="E378" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F378" t="s" s="2">
+      <c r="F378" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G378" t="s" s="2">
+      <c r="G378" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H378" t="s" s="2">
+      <c r="H378" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I378" t="s" s="2">
+      <c r="I378" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11092,10 +11104,10 @@
       <c r="I380">
         <f>((C380-C379)^2+(D380- D379)^2)^.5</f>
       </c>
-      <c r="J380" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K380" s="2" t="s">
+      <c r="J380" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K380" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L380" t="n">
@@ -11139,28 +11151,28 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" t="s" s="2">
+      <c r="A382" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B382" t="s" s="2">
+      <c r="B382" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C382" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D382" t="s" s="2">
+      <c r="C382" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D382" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E382" t="s" s="2">
+      <c r="E382" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F382" t="s" s="2">
+      <c r="F382" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G382" t="s" s="2">
+      <c r="G382" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H382" t="s" s="2">
+      <c r="H382" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11185,28 +11197,28 @@
       </c>
     </row>
     <row r="384">
-      <c r="B384" t="s" s="2">
+      <c r="B384" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C384" t="s" s="2">
+      <c r="C384" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D384" t="s" s="2">
+      <c r="D384" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E384" t="s" s="2">
+      <c r="E384" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F384" t="s" s="2">
+      <c r="F384" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G384" t="s" s="2">
+      <c r="G384" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H384" t="s" s="2">
+      <c r="H384" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I384" t="s" s="2">
+      <c r="I384" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11265,10 +11277,10 @@
       <c r="I386">
         <f>((C386-C385)^2+(D386- D385)^2)^.5</f>
       </c>
-      <c r="J386" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K386" s="2" t="s">
+      <c r="J386" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K386" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L386" t="n">
@@ -11312,28 +11324,28 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" t="s" s="2">
+      <c r="A388" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B388" t="s" s="2">
+      <c r="B388" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C388" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D388" t="s" s="2">
+      <c r="C388" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D388" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E388" t="s" s="2">
+      <c r="E388" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F388" t="s" s="2">
+      <c r="F388" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G388" t="s" s="2">
+      <c r="G388" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H388" t="s" s="2">
+      <c r="H388" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11358,28 +11370,28 @@
       </c>
     </row>
     <row r="390">
-      <c r="B390" t="s" s="2">
+      <c r="B390" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C390" t="s" s="2">
+      <c r="C390" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D390" t="s" s="2">
+      <c r="D390" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E390" t="s" s="2">
+      <c r="E390" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F390" t="s" s="2">
+      <c r="F390" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G390" t="s" s="2">
+      <c r="G390" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H390" t="s" s="2">
+      <c r="H390" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I390" t="s" s="2">
+      <c r="I390" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11438,10 +11450,10 @@
       <c r="I392">
         <f>((C392-C391)^2+(D392- D391)^2)^.5</f>
       </c>
-      <c r="J392" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K392" s="2" t="s">
+      <c r="J392" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K392" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L392" t="n">
@@ -11485,28 +11497,28 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" t="s" s="2">
+      <c r="A394" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B394" t="s" s="2">
+      <c r="B394" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C394" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D394" t="s" s="2">
+      <c r="C394" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D394" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E394" t="s" s="2">
+      <c r="E394" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F394" t="s" s="2">
+      <c r="F394" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G394" t="s" s="2">
+      <c r="G394" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H394" t="s" s="2">
+      <c r="H394" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11531,28 +11543,28 @@
       </c>
     </row>
     <row r="396">
-      <c r="B396" t="s" s="2">
+      <c r="B396" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C396" t="s" s="2">
+      <c r="C396" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D396" t="s" s="2">
+      <c r="D396" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E396" t="s" s="2">
+      <c r="E396" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F396" t="s" s="2">
+      <c r="F396" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G396" t="s" s="2">
+      <c r="G396" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H396" t="s" s="2">
+      <c r="H396" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I396" t="s" s="2">
+      <c r="I396" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11640,10 +11652,10 @@
       <c r="I399">
         <f>((C399-C398)^2+(D399- D398)^2)^.5</f>
       </c>
-      <c r="J399" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K399" s="2" t="s">
+      <c r="J399" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K399" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L399" t="n">
@@ -11687,28 +11699,28 @@
       </c>
     </row>
     <row r="401">
-      <c r="A401" t="s" s="2">
+      <c r="A401" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B401" t="s" s="2">
+      <c r="B401" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C401" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D401" t="s" s="2">
+      <c r="C401" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D401" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E401" t="s" s="2">
+      <c r="E401" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F401" t="s" s="2">
+      <c r="F401" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G401" t="s" s="2">
+      <c r="G401" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H401" t="s" s="2">
+      <c r="H401" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11733,28 +11745,28 @@
       </c>
     </row>
     <row r="403">
-      <c r="B403" t="s" s="2">
+      <c r="B403" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C403" t="s" s="2">
+      <c r="C403" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D403" t="s" s="2">
+      <c r="D403" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E403" t="s" s="2">
+      <c r="E403" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F403" t="s" s="2">
+      <c r="F403" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G403" t="s" s="2">
+      <c r="G403" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H403" t="s" s="2">
+      <c r="H403" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I403" t="s" s="2">
+      <c r="I403" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11813,10 +11825,10 @@
       <c r="I405">
         <f>((C405-C404)^2+(D405- D404)^2)^.5</f>
       </c>
-      <c r="J405" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K405" s="2" t="s">
+      <c r="J405" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K405" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L405" t="n">
@@ -11860,28 +11872,28 @@
       </c>
     </row>
     <row r="407">
-      <c r="A407" t="s" s="2">
+      <c r="A407" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B407" t="s" s="2">
+      <c r="B407" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C407" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D407" t="s" s="2">
+      <c r="C407" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D407" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E407" t="s" s="2">
+      <c r="E407" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F407" t="s" s="2">
+      <c r="F407" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G407" t="s" s="2">
+      <c r="G407" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H407" t="s" s="2">
+      <c r="H407" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11906,28 +11918,28 @@
       </c>
     </row>
     <row r="409">
-      <c r="B409" t="s" s="2">
+      <c r="B409" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C409" t="s" s="2">
+      <c r="C409" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D409" t="s" s="2">
+      <c r="D409" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E409" t="s" s="2">
+      <c r="E409" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F409" t="s" s="2">
+      <c r="F409" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G409" t="s" s="2">
+      <c r="G409" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H409" t="s" s="2">
+      <c r="H409" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I409" t="s" s="2">
+      <c r="I409" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11986,10 +11998,10 @@
       <c r="I411">
         <f>((C411-C410)^2+(D411- D410)^2)^.5</f>
       </c>
-      <c r="J411" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K411" s="2" t="s">
+      <c r="J411" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K411" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L411" t="n">
@@ -12033,28 +12045,28 @@
       </c>
     </row>
     <row r="413">
-      <c r="A413" t="s" s="2">
+      <c r="A413" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B413" t="s" s="2">
+      <c r="B413" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C413" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D413" t="s" s="2">
+      <c r="C413" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D413" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E413" t="s" s="2">
+      <c r="E413" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F413" t="s" s="2">
+      <c r="F413" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G413" t="s" s="2">
+      <c r="G413" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H413" t="s" s="2">
+      <c r="H413" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12079,28 +12091,28 @@
       </c>
     </row>
     <row r="415">
-      <c r="B415" t="s" s="2">
+      <c r="B415" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C415" t="s" s="2">
+      <c r="C415" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D415" t="s" s="2">
+      <c r="D415" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E415" t="s" s="2">
+      <c r="E415" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F415" t="s" s="2">
+      <c r="F415" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G415" t="s" s="2">
+      <c r="G415" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H415" t="s" s="2">
+      <c r="H415" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I415" t="s" s="2">
+      <c r="I415" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12159,10 +12171,10 @@
       <c r="I417">
         <f>((C417-C416)^2+(D417- D416)^2)^.5</f>
       </c>
-      <c r="J417" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K417" s="2" t="s">
+      <c r="J417" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K417" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L417" t="n">
@@ -12206,28 +12218,28 @@
       </c>
     </row>
     <row r="419">
-      <c r="A419" t="s" s="2">
+      <c r="A419" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B419" t="s" s="2">
+      <c r="B419" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C419" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D419" t="s" s="2">
+      <c r="C419" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D419" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E419" t="s" s="2">
+      <c r="E419" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F419" t="s" s="2">
+      <c r="F419" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G419" t="s" s="2">
+      <c r="G419" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H419" t="s" s="2">
+      <c r="H419" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12252,28 +12264,28 @@
       </c>
     </row>
     <row r="421">
-      <c r="B421" t="s" s="2">
+      <c r="B421" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C421" t="s" s="2">
+      <c r="C421" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D421" t="s" s="2">
+      <c r="D421" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E421" t="s" s="2">
+      <c r="E421" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F421" t="s" s="2">
+      <c r="F421" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G421" t="s" s="2">
+      <c r="G421" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H421" t="s" s="2">
+      <c r="H421" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I421" t="s" s="2">
+      <c r="I421" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12332,10 +12344,10 @@
       <c r="I423">
         <f>((C423-C422)^2+(D423- D422)^2)^.5</f>
       </c>
-      <c r="J423" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K423" s="2" t="s">
+      <c r="J423" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K423" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L423" t="n">
@@ -12379,28 +12391,28 @@
       </c>
     </row>
     <row r="425">
-      <c r="A425" t="s" s="2">
+      <c r="A425" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B425" t="s" s="2">
+      <c r="B425" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C425" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D425" t="s" s="2">
+      <c r="C425" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D425" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E425" t="s" s="2">
+      <c r="E425" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F425" t="s" s="2">
+      <c r="F425" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G425" t="s" s="2">
+      <c r="G425" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H425" t="s" s="2">
+      <c r="H425" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12425,28 +12437,28 @@
       </c>
     </row>
     <row r="427">
-      <c r="B427" t="s" s="2">
+      <c r="B427" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C427" t="s" s="2">
+      <c r="C427" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D427" t="s" s="2">
+      <c r="D427" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E427" t="s" s="2">
+      <c r="E427" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F427" t="s" s="2">
+      <c r="F427" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G427" t="s" s="2">
+      <c r="G427" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H427" t="s" s="2">
+      <c r="H427" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I427" t="s" s="2">
+      <c r="I427" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12505,10 +12517,10 @@
       <c r="I429">
         <f>((C429-C428)^2+(D429- D428)^2)^.5</f>
       </c>
-      <c r="J429" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K429" s="2" t="s">
+      <c r="J429" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K429" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L429" t="n">
@@ -12552,28 +12564,28 @@
       </c>
     </row>
     <row r="431">
-      <c r="A431" t="s" s="2">
+      <c r="A431" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B431" t="s" s="2">
+      <c r="B431" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C431" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D431" t="s" s="2">
+      <c r="C431" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D431" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E431" t="s" s="2">
+      <c r="E431" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F431" t="s" s="2">
+      <c r="F431" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G431" t="s" s="2">
+      <c r="G431" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H431" t="s" s="2">
+      <c r="H431" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12598,28 +12610,28 @@
       </c>
     </row>
     <row r="433">
-      <c r="B433" t="s" s="2">
+      <c r="B433" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C433" t="s" s="2">
+      <c r="C433" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D433" t="s" s="2">
+      <c r="D433" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E433" t="s" s="2">
+      <c r="E433" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F433" t="s" s="2">
+      <c r="F433" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G433" t="s" s="2">
+      <c r="G433" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H433" t="s" s="2">
+      <c r="H433" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I433" t="s" s="2">
+      <c r="I433" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12678,10 +12690,10 @@
       <c r="I435">
         <f>((C435-C434)^2+(D435- D434)^2)^.5</f>
       </c>
-      <c r="J435" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K435" s="2" t="s">
+      <c r="J435" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K435" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L435" t="n">
@@ -12725,28 +12737,28 @@
       </c>
     </row>
     <row r="437">
-      <c r="A437" t="s" s="2">
+      <c r="A437" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B437" t="s" s="2">
+      <c r="B437" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C437" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D437" t="s" s="2">
+      <c r="C437" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D437" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E437" t="s" s="2">
+      <c r="E437" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F437" t="s" s="2">
+      <c r="F437" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G437" t="s" s="2">
+      <c r="G437" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H437" t="s" s="2">
+      <c r="H437" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12771,28 +12783,28 @@
       </c>
     </row>
     <row r="439">
-      <c r="B439" t="s" s="2">
+      <c r="B439" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C439" t="s" s="2">
+      <c r="C439" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D439" t="s" s="2">
+      <c r="D439" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E439" t="s" s="2">
+      <c r="E439" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F439" t="s" s="2">
+      <c r="F439" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G439" t="s" s="2">
+      <c r="G439" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H439" t="s" s="2">
+      <c r="H439" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I439" t="s" s="2">
+      <c r="I439" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12851,10 +12863,10 @@
       <c r="I441">
         <f>((C441-C440)^2+(D441- D440)^2)^.5</f>
       </c>
-      <c r="J441" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K441" s="2" t="s">
+      <c r="J441" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K441" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L441" t="n">
